--- a/medicine/Psychotrope/Musée_de_la_vigne_et_du_vin_du_Jura/Musée_de_la_vigne_et_du_vin_du_Jura.xlsx
+++ b/medicine/Psychotrope/Musée_de_la_vigne_et_du_vin_du_Jura/Musée_de_la_vigne_et_du_vin_du_Jura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_vigne_et_du_vin_du_Jura</t>
+          <t>Musée_de_la_vigne_et_du_vin_du_Jura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée de la vigne et du vin d'Arbois est un musée consacré au vin, aménagé dans le château Pécauld à Arbois dans le Jura.
-Il a reçu l'appellation Musée de France[1] et participe, depuis 2020, au catalogue collectif des collections des musées de France Joconde[2].
+Il a reçu l'appellation Musée de France et participe, depuis 2020, au catalogue collectif des collections des musées de France Joconde.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_vigne_et_du_vin_du_Jura</t>
+          <t>Musée_de_la_vigne_et_du_vin_du_Jura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Le musée de la vigne et du vin d'Arbois occupe depuis 1993 une partie du château Pécauld, château médiéval (XIIIe et XIVe siècles) remanié au XVIIIe siècle et classé au titre des Monuments Historiques[3],[4],[5].
-Collections
-Les collections vini-viticoles, réunies depuis 1970, ont pour thèmes la verrerie, le costume, les métiers et outils, les pratiques religieuses et collectives[3]. Nombre de pièces, auparavant confinées dans les réserves, ont trouvé leur place dans les salles d’exposition[4].
-Circuit de découverte
-La visite du musée commence au pied du château, dans les vignes reconstituées, plantées de cépages de la région[3].
-Elle se poursuit à l’intérieur, dans des caves voûtées où sont présentées les différentes méthodes de vinification, dont certaines propres au terroir (vin jaune, vin de paille, macvin), à côté de l'outillage pour le travail de la vigne et du matériel vinaire (pressoirs, foudres, alambic) qui évolue avec le temps[3],[4],[6].
-Dans les salles du rez-de-chaussée, sont évoquées les crises que les communautés vigneronnes ont traversées (phylloxéra, grève de l’impôt), mais aussi les fêtes et les traditions locales et la vie du savant Louis Pasteur qui grandit et résida à Arbois[3].
-Expositions temporaires
-En 2018, le musée a accueilli une exposition sur les archives de Louis Pasteur[7],[8],[9].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée de la vigne et du vin d'Arbois occupe depuis 1993 une partie du château Pécauld, château médiéval (XIIIe et XIVe siècles) remanié au XVIIIe siècle et classé au titre des Monuments Historiques.
 </t>
         </is>
       </c>
@@ -534,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_vigne_et_du_vin_du_Jura</t>
+          <t>Musée_de_la_vigne_et_du_vin_du_Jura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +558,127 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les collections vini-viticoles, réunies depuis 1970, ont pour thèmes la verrerie, le costume, les métiers et outils, les pratiques religieuses et collectives. Nombre de pièces, auparavant confinées dans les réserves, ont trouvé leur place dans les salles d’exposition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Musée_de_la_vigne_et_du_vin_du_Jura</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_vigne_et_du_vin_du_Jura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Circuit de découverte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La visite du musée commence au pied du château, dans les vignes reconstituées, plantées de cépages de la région.
+Elle se poursuit à l’intérieur, dans des caves voûtées où sont présentées les différentes méthodes de vinification, dont certaines propres au terroir (vin jaune, vin de paille, macvin), à côté de l'outillage pour le travail de la vigne et du matériel vinaire (pressoirs, foudres, alambic) qui évolue avec le temps.
+Dans les salles du rez-de-chaussée, sont évoquées les crises que les communautés vigneronnes ont traversées (phylloxéra, grève de l’impôt), mais aussi les fêtes et les traditions locales et la vie du savant Louis Pasteur qui grandit et résida à Arbois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Musée_de_la_vigne_et_du_vin_du_Jura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_vigne_et_du_vin_du_Jura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Expositions temporaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, le musée a accueilli une exposition sur les archives de Louis Pasteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Musée_de_la_vigne_et_du_vin_du_Jura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_vigne_et_du_vin_du_Jura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée a reçu 4 421 visiteurs en 2012 et 6 371 en 2013[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée a reçu 4 421 visiteurs en 2012 et 6 371 en 2013.
 </t>
         </is>
       </c>
